--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="98">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -201,6 +201,115 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
   </si>
 </sst>
 </file>
@@ -1752,6 +1861,346 @@
         <v>55</v>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="99">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -310,6 +310,10 @@
   </si>
   <si>
     <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2117,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="118">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -310,6 +310,78 @@
   </si>
   <si>
     <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
   </si>
   <si>
     <t xml:space="preserve">0
@@ -1650,6 +1722,33 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1969,7 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -1887,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -1921,7 +2020,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -1938,7 +2037,7 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2117,7 +2216,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -2203,6 +2302,40 @@
       </c>
       <c r="F29" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="125">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -382,6 +382,34 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
   </si>
   <si>
     <t xml:space="preserve">0
@@ -2216,7 +2244,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6206" uniqueCount="130">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -382,6 +382,26 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0
+</t>
   </si>
   <si>
     <t xml:space="preserve">0
@@ -2244,7 +2264,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6206" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8715" uniqueCount="141">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -434,6 +434,39 @@
   <si>
     <t xml:space="preserve">0
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+,-,:,x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
   </si>
 </sst>
 </file>
@@ -1812,6 +1845,33 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2264,7 +2324,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -2386,6 +2446,42 @@
         <v>55</v>
       </c>
     </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
